--- a/Maze 仕様書.xlsx
+++ b/Maze 仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\MazeRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA7DDEA3-3D60-4819-9A40-804E7B904C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773EE71A-18E7-4DDC-B17A-F7F400AB7F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0978F9DA-6C6E-400A-BDDE-A0088EFB5385}"/>
+    <workbookView xWindow="4110" yWindow="4905" windowWidth="21600" windowHeight="11295" xr2:uid="{0978F9DA-6C6E-400A-BDDE-A0088EFB5385}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Maze完成まで</t>
     <rPh sb="4" eb="6">
@@ -170,12 +170,67 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>プレイヤーのいるセルに沿っての上にブロック生成完成。クラスを分割した。プレイヤーいるセルを調べる関数をグリッドクラスに書いた。</t>
+    <rPh sb="11" eb="12">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向きはできた</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックの生成位置</t>
+    <rPh sb="5" eb="7">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックの生成向き</t>
+    <rPh sb="5" eb="7">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,12 +246,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -206,7 +255,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -229,32 +278,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -278,6 +367,14 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -291,7 +388,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -323,7 +420,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323849</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -390,7 +487,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323849</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -402,7 +499,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A59503-CC09-672C-7614-9429FDEE8641}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -457,7 +554,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323849</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -469,7 +566,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BECDB2E-9D00-CAEF-6943-63776F768A43}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -524,7 +621,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323849</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -536,7 +633,7 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E56FE55A-63D4-E601-F135-0CB36E9B4F65}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -591,7 +688,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323849</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -603,7 +700,7 @@
                   <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864B37FB-D1DE-F90D-7DE8-45B9C2FF6699}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -653,14 +750,14 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323849</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>240195</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -670,74 +767,7 @@
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BEDB970-7351-BF2B-58C7-CC5F2773EE87}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>323849</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1060"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9717CD73-32E5-2674-C311-4101CC295512}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -792,19 +822,19 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323849</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
+            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1061"/>
+                  <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A48A599A-3D6E-77B9-7E15-68CFD1B7251C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -854,24 +884,24 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323849</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>1</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1062"/>
+                  <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3D22C5-C3E6-49DD-F099-C6CA7ADA4C36}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -912,6 +942,197 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="688285" cy="240196"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55CB3E6-DFEF-4732-9C10-B062BD457F5C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="688285" cy="240196"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD5C1DD5-C6B2-448D-9FCD-36BBC5C82FDC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1215,682 +1436,747 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858B8CB4-769B-4558-8834-3BB42C5C90BD}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:V6"/>
+      <selection activeCell="G7" sqref="G7:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.75" customWidth="1"/>
-    <col min="3" max="6" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A3" s="6">
+      <c r="A3" s="2">
         <v>45270</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A4" s="6">
+      <c r="A4" s="2">
         <v>45270</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A5" s="6">
+      <c r="A5" s="2">
         <v>45271</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2">
+        <v>45271</v>
+      </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2">
+        <v>45271</v>
+      </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="G21:V21"/>
-    <mergeCell ref="G22:V22"/>
-    <mergeCell ref="G23:V23"/>
-    <mergeCell ref="G24:V24"/>
-    <mergeCell ref="G25:V25"/>
-    <mergeCell ref="G7:V7"/>
-    <mergeCell ref="G8:V8"/>
-    <mergeCell ref="G9:V9"/>
-    <mergeCell ref="G10:V10"/>
-    <mergeCell ref="G11:V11"/>
-    <mergeCell ref="G12:V12"/>
-    <mergeCell ref="G2:V2"/>
-    <mergeCell ref="G3:V3"/>
-    <mergeCell ref="G4:V4"/>
-    <mergeCell ref="G5:V5"/>
-    <mergeCell ref="G6:V6"/>
-    <mergeCell ref="G17:V17"/>
-    <mergeCell ref="G18:V18"/>
-    <mergeCell ref="G19:V19"/>
-    <mergeCell ref="G20:V20"/>
-    <mergeCell ref="G13:V13"/>
-    <mergeCell ref="G14:V14"/>
-    <mergeCell ref="G15:V15"/>
-    <mergeCell ref="G16:V16"/>
-    <mergeCell ref="C25:F25"/>
+  <mergeCells count="53">
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C8:F8"/>
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G19:V19"/>
+    <mergeCell ref="G20:V20"/>
+    <mergeCell ref="G21:V21"/>
+    <mergeCell ref="G22:V22"/>
+    <mergeCell ref="G15:V15"/>
+    <mergeCell ref="G16:V16"/>
+    <mergeCell ref="G17:V17"/>
+    <mergeCell ref="G18:V18"/>
+    <mergeCell ref="G14:V14"/>
+    <mergeCell ref="G2:V2"/>
+    <mergeCell ref="G3:V3"/>
+    <mergeCell ref="G4:V4"/>
+    <mergeCell ref="G5:V5"/>
+    <mergeCell ref="G6:V6"/>
+    <mergeCell ref="G8:V8"/>
+    <mergeCell ref="G7:V7"/>
+    <mergeCell ref="G9:V9"/>
+    <mergeCell ref="G10:V10"/>
+    <mergeCell ref="G11:V11"/>
+    <mergeCell ref="G12:V12"/>
+    <mergeCell ref="G13:V13"/>
+    <mergeCell ref="G23:V23"/>
+    <mergeCell ref="G24:V24"/>
+    <mergeCell ref="G25:V25"/>
+    <mergeCell ref="G26:V26"/>
+    <mergeCell ref="G27:V27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2017,13 +2303,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>7</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2034,28 +2320,6 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="1060" r:id="rId9" name="Check Box 36">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId10" name="Check Box 37">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2077,19 +2341,85 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
+            <control shapeId="1061" r:id="rId10" name="Check Box 37">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
             <control shapeId="1062" r:id="rId11" name="Check Box 38">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>9</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>10</xdr:row>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1066" r:id="rId12" name="Check Box 42">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1067" r:id="rId13" name="Check Box 43">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>

--- a/Maze 仕様書.xlsx
+++ b/Maze 仕様書.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\MazeRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773EE71A-18E7-4DDC-B17A-F7F400AB7F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F92878D-60FD-4CA2-A4A8-20BD24A9280C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="4905" windowWidth="21600" windowHeight="11295" xr2:uid="{0978F9DA-6C6E-400A-BDDE-A0088EFB5385}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0978F9DA-6C6E-400A-BDDE-A0088EFB5385}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Maze完成まで" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Maze完成まで</t>
     <rPh sb="4" eb="6">
@@ -222,6 +223,39 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GridFieldクラス作成</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnityのVector3クラス真似して作成。いろいろな変数や関数を書いた。</t>
+    <rPh sb="16" eb="18">
+      <t>マネ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DrowLine追加</t>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -255,7 +289,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -291,37 +325,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -331,20 +341,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -373,6 +374,14 @@
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -750,13 +759,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>240195</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -768,6 +777,341 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>1</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1060"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>1</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1061"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>240195</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -828,13 +1172,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
+            <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1060"/>
+                  <a14:compatExt spid="_x0000_s1069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3DA02ED-872D-D75B-5C2D-D17494094B37}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -884,24 +1228,24 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
+            <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1061"/>
+                  <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D41F252-ADE9-E345-CF37-11C7862EDEF7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -942,197 +1286,6 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1062"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="688285" cy="240196"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1066"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55CB3E6-DFEF-4732-9C10-B062BD457F5C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="688285" cy="240196"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1067"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD5C1DD5-C6B2-448D-9FCD-36BBC5C82FDC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1436,748 +1589,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858B8CB4-769B-4558-8834-3BB42C5C90BD}">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A2:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:V7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.75" customWidth="1"/>
+    <col min="3" max="3" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="164.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45270</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45270</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45271</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45271</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45271</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G19:V19"/>
-    <mergeCell ref="G20:V20"/>
-    <mergeCell ref="G21:V21"/>
-    <mergeCell ref="G22:V22"/>
-    <mergeCell ref="G15:V15"/>
-    <mergeCell ref="G16:V16"/>
-    <mergeCell ref="G17:V17"/>
-    <mergeCell ref="G18:V18"/>
-    <mergeCell ref="G14:V14"/>
-    <mergeCell ref="G2:V2"/>
-    <mergeCell ref="G3:V3"/>
-    <mergeCell ref="G4:V4"/>
-    <mergeCell ref="G5:V5"/>
-    <mergeCell ref="G6:V6"/>
-    <mergeCell ref="G8:V8"/>
-    <mergeCell ref="G7:V7"/>
-    <mergeCell ref="G9:V9"/>
-    <mergeCell ref="G10:V10"/>
-    <mergeCell ref="G11:V11"/>
-    <mergeCell ref="G12:V12"/>
-    <mergeCell ref="G13:V13"/>
-    <mergeCell ref="G23:V23"/>
-    <mergeCell ref="G24:V24"/>
-    <mergeCell ref="G25:V25"/>
-    <mergeCell ref="G26:V26"/>
-    <mergeCell ref="G27:V27"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2303,13 +1947,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>9</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>10</xdr:row>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2325,13 +1969,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>9</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2347,13 +1991,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>10</xdr:row>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2369,13 +2013,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2391,13 +2035,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>7</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2427,8 +2071,65 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1069" r:id="rId14" name="Check Box 45">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1070" r:id="rId15" name="Check Box 46">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59704C04-EE14-4310-B189-9AC896DD63B1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Maze 仕様書.xlsx
+++ b/Maze 仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\MazeRepository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanet\Desktop\MazeRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F92878D-60FD-4CA2-A4A8-20BD24A9280C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE04750-9BFF-49E8-A0F0-9B87FA0A70EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0978F9DA-6C6E-400A-BDDE-A0088EFB5385}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0978F9DA-6C6E-400A-BDDE-A0088EFB5385}"/>
   </bookViews>
   <sheets>
     <sheet name="Maze完成まで" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Maze完成まで</t>
     <rPh sb="4" eb="6">
@@ -256,6 +256,13 @@
     <t>DrowLine追加</t>
     <rPh sb="8" eb="10">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FPCクラス作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -369,7 +376,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,11 +384,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,7 +440,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>327660</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -496,7 +507,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>327660</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -563,7 +574,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>327660</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -630,7 +641,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>327660</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -697,7 +708,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>327660</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -759,14 +770,14 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>240195</xdr:rowOff>
+          <xdr:colOff>327660</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>1</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -826,14 +837,14 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>327660</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>231913</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -893,14 +904,14 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:colOff>327660</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -960,14 +971,14 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>240195</xdr:rowOff>
+          <xdr:colOff>327660</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1027,14 +1038,14 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>327660</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>231913</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1099,7 +1110,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>327660</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1161,13 +1172,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:colOff>327660</xdr:colOff>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1178,7 +1189,7 @@
                   <a14:compatExt spid="_x0000_s1069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3DA02ED-872D-D75B-5C2D-D17494094B37}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1233,7 +1244,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>327660</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1245,7 +1256,74 @@
                   <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D41F252-ADE9-E345-CF37-11C7862EDEF7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>327660</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1072"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3933F14-A3F4-9D99-6D71-0905ECAC8468}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1589,21 +1667,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858B8CB4-769B-4558-8834-3BB42C5C90BD}">
-  <dimension ref="A2:D29"/>
+  <dimension ref="A2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.75" customWidth="1"/>
-    <col min="3" max="3" width="33.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="164.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" customWidth="1"/>
+    <col min="3" max="3" width="33.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="164.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -1611,7 +1689,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>45270</v>
       </c>
@@ -1623,7 +1701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>45270</v>
       </c>
@@ -1635,7 +1713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>45271</v>
       </c>
@@ -1647,7 +1725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>45271</v>
       </c>
@@ -1659,7 +1737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>45271</v>
       </c>
@@ -1671,7 +1749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
@@ -1681,145 +1759,153 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1842,7 +1928,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:colOff>327660</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -1864,7 +1950,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:colOff>327660</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -1886,7 +1972,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:colOff>327660</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -1908,7 +1994,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:colOff>327660</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -1930,7 +2016,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:colOff>327660</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -1947,13 +2033,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -1969,13 +2055,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>10</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -1991,13 +2077,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>13</xdr:row>
+                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2013,13 +2099,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>13</xdr:row>
+                    <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2035,13 +2121,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>9</xdr:row>
+                    <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>10</xdr:row>
+                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2062,7 +2148,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:colOff>327660</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2079,13 +2165,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>9</xdr:row>
+                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2106,8 +2192,30 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:colOff>327660</xdr:colOff>
                     <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1072" r:id="rId16" name="Check Box 48">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2127,7 +2235,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Maze 仕様書.xlsx
+++ b/Maze 仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\MazeRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F92878D-60FD-4CA2-A4A8-20BD24A9280C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B44BCDE-4F4E-42FB-9429-D66092463456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0978F9DA-6C6E-400A-BDDE-A0088EFB5385}"/>
   </bookViews>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -765,8 +765,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>240195</xdr:rowOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -833,7 +833,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>323850</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -899,8 +899,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>240195</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -966,8 +966,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>240195</xdr:rowOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1178,7 +1178,7 @@
                   <a14:compatExt spid="_x0000_s1069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3DA02ED-872D-D75B-5C2D-D17494094B37}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1245,7 +1245,7 @@
                   <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D41F252-ADE9-E345-CF37-11C7862EDEF7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1592,7 +1592,7 @@
   <dimension ref="A2:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1682,7 +1682,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>45273</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="4" t="s">
         <v>18</v>

--- a/Maze 仕様書.xlsx
+++ b/Maze 仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\MazeRepository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanet\Desktop\MazeRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B44BCDE-4F4E-42FB-9429-D66092463456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E07EB8C-4764-49BD-B6F3-27F68F73323A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0978F9DA-6C6E-400A-BDDE-A0088EFB5385}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0978F9DA-6C6E-400A-BDDE-A0088EFB5385}"/>
   </bookViews>
   <sheets>
     <sheet name="Maze完成まで" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Maze完成まで</t>
     <rPh sb="4" eb="6">
@@ -77,13 +77,6 @@
       <t>ソ</t>
     </rPh>
     <rPh sb="13" eb="15">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロックのランダム生成</t>
-    <rPh sb="9" eb="11">
       <t>セイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -256,6 +249,69 @@
     <t>DrowLine追加</t>
     <rPh sb="8" eb="10">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックのシャッフル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックのランダム生成(一つ)</t>
+    <rPh sb="9" eb="11">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーのいるセルの一個前のセルにブロック生成</t>
+    <rPh sb="11" eb="13">
+      <t>イッコ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックの枝分かれ地点でブロック生成</t>
+    <rPh sb="5" eb="7">
+      <t>エダワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キュークラスはつかわないで作成。アルゴリズムクラスでシャッフル。スワップ関数は作れなかった。</t>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上と同じ</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -369,7 +425,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,6 +438,22 @@
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,7 +477,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,7 +501,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>327660</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -496,7 +568,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>327660</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -563,7 +635,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>327660</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -630,7 +702,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>327660</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -697,7 +769,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>327660</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -759,14 +831,14 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>327660</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>1</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -826,13 +898,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:colOff>327660</xdr:colOff>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -893,14 +965,14 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>240195</xdr:rowOff>
+          <xdr:colOff>327660</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -960,13 +1032,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:colOff>327660</xdr:colOff>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1032,7 +1104,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>327660</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1099,7 +1171,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>327660</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1166,7 +1238,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>327660</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1233,7 +1305,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>327660</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1246,6 +1318,274 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>327660</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>231913</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1071"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051C201F-25EC-DE8F-7BFB-DA5DCA5CAD79}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>327660</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1072"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{944EC1D3-8D30-8A30-D731-FC189101909B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>327660</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1073" name="Check Box 49" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24AA8135-C278-99D8-C295-A0C7B1E8FE45}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>327660</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1074" name="Check Box 50" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1074"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F122038D-9C1B-5CA7-1C70-29CB650843FA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1589,21 +1929,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858B8CB4-769B-4558-8834-3BB42C5C90BD}">
-  <dimension ref="A2:D29"/>
+  <dimension ref="A2:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.75" customWidth="1"/>
-    <col min="3" max="3" width="33.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="164.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" customWidth="1"/>
+    <col min="3" max="3" width="33.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="164.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -1611,7 +1951,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>45270</v>
       </c>
@@ -1620,10 +1960,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>45270</v>
       </c>
@@ -1632,10 +1972,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>45271</v>
       </c>
@@ -1644,10 +1984,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>45271</v>
       </c>
@@ -1656,172 +1996,216 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>45271</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>45273</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>45277</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>45276</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>45276</v>
+      </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>45276</v>
+      </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1844,7 +2228,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:colOff>327660</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -1866,7 +2250,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:colOff>327660</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -1888,7 +2272,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:colOff>327660</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -1910,7 +2294,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:colOff>327660</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -1932,7 +2316,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:colOff>327660</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -1949,13 +2333,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -1971,13 +2355,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>10</xdr:row>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -1993,13 +2377,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>13</xdr:row>
+                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2015,13 +2399,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>13</xdr:row>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2042,7 +2426,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:colOff>327660</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2064,7 +2448,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:colOff>327660</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2086,7 +2470,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:colOff>327660</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2108,8 +2492,96 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:colOff>327660</xdr:colOff>
                     <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1071" r:id="rId16" name="Check Box 47">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1072" r:id="rId17" name="Check Box 48">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1073" r:id="rId18" name="Check Box 49">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1074" r:id="rId19" name="Check Box 50">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2129,7 +2601,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Maze 仕様書.xlsx
+++ b/Maze 仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanet\Desktop\MazeRepository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\MazeRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E07EB8C-4764-49BD-B6F3-27F68F73323A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF64C37C-58A3-4F2A-9ED0-D9530A0FD3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0978F9DA-6C6E-400A-BDDE-A0088EFB5385}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0978F9DA-6C6E-400A-BDDE-A0088EFB5385}"/>
   </bookViews>
   <sheets>
     <sheet name="Maze完成まで" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Maze完成まで</t>
     <rPh sb="4" eb="6">
@@ -280,19 +280,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブロックの枝分かれ地点でブロック生成</t>
-    <rPh sb="5" eb="7">
-      <t>エダワ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>チテン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キュークラスはつかわないで作成。アルゴリズムクラスでシャッフル。スワップ関数は作れなかった。</t>
     <rPh sb="13" eb="15">
       <t>サクセイ</t>
@@ -312,6 +299,76 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックの枝分かれ地点でブロック生成</t>
+  </si>
+  <si>
+    <t>セクションの種エレメント、枝エレメント生成</t>
+    <rPh sb="6" eb="7">
+      <t>タネ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エダ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックからセクションに名前を変えた。セクションの向きと種類のテーブルをすべて作るのが大変でした。マップのエレメントを管理する二重配列に値を格納していきます。</t>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>タイヘン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="63" eb="67">
+      <t>ニジュウハイレツ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セクションの生成条件</t>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セクション1につながるセクション2の複数生成</t>
+    <rPh sb="18" eb="20">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -445,7 +502,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,6 +511,14 @@
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,7 +566,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -568,7 +633,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -635,7 +700,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -702,7 +767,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -769,7 +834,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -831,14 +896,14 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>240195</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -903,9 +968,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>240195</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -965,14 +1030,14 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>1</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1032,13 +1097,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1104,7 +1169,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1171,7 +1236,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1238,7 +1303,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1305,7 +1370,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1372,9 +1437,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>231913</xdr:rowOff>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1384,7 +1449,7 @@
                   <a14:compatExt spid="_x0000_s1071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051C201F-25EC-DE8F-7BFB-DA5DCA5CAD79}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1439,7 +1504,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1451,7 +1516,7 @@
                   <a14:compatExt spid="_x0000_s1072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{944EC1D3-8D30-8A30-D731-FC189101909B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1501,13 +1566,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1518,7 +1583,7 @@
                   <a14:compatExt spid="_x0000_s1073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24AA8135-C278-99D8-C295-A0C7B1E8FE45}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1573,7 +1638,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1585,7 +1650,141 @@
                   <a14:compatExt spid="_x0000_s1074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F122038D-9C1B-5CA7-1C70-29CB650843FA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1076" name="Check Box 52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1076"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB73AD92-75D5-7C64-A2D5-AFEEF6130864}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1077" name="Check Box 53" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1077"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88BBF4C9-C3F2-06B0-5B45-1E60278C6452}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1929,21 +2128,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858B8CB4-769B-4558-8834-3BB42C5C90BD}">
-  <dimension ref="A2:D33"/>
+  <dimension ref="A2:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.69921875" customWidth="1"/>
-    <col min="3" max="3" width="33.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="164.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" customWidth="1"/>
+    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="164.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -1951,7 +2150,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45270</v>
       </c>
@@ -1963,7 +2162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45270</v>
       </c>
@@ -1975,7 +2174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45271</v>
       </c>
@@ -1987,7 +2186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45271</v>
       </c>
@@ -1999,7 +2198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45271</v>
       </c>
@@ -2011,7 +2210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
@@ -2021,7 +2220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45273</v>
       </c>
@@ -2031,7 +2230,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45277</v>
       </c>
@@ -2043,7 +2242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45276</v>
       </c>
@@ -2052,10 +2251,10 @@
         <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45276</v>
       </c>
@@ -2067,7 +2266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45276</v>
       </c>
@@ -2076,136 +2275,158 @@
         <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>45278</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2228,7 +2449,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:colOff>323850</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2250,7 +2471,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:colOff>323850</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2272,7 +2493,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:colOff>323850</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2294,7 +2515,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:colOff>323850</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2316,7 +2537,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:colOff>323850</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2333,13 +2554,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2360,7 +2581,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:colOff>323850</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2377,13 +2598,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2399,13 +2620,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2426,7 +2647,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:colOff>323850</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2448,7 +2669,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:colOff>323850</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2470,7 +2691,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:colOff>323850</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2492,7 +2713,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:colOff>323850</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2514,7 +2735,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:colOff>323850</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2536,7 +2757,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:colOff>323850</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2553,13 +2774,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2580,8 +2801,52 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:colOff>323850</xdr:colOff>
                     <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1076" r:id="rId20" name="Check Box 52">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1077" r:id="rId21" name="Check Box 53">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2601,7 +2866,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Maze 仕様書.xlsx
+++ b/Maze 仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\MazeRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF64C37C-58A3-4F2A-9ED0-D9530A0FD3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3535F27A-1599-4D5C-8D69-24D841B80F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0978F9DA-6C6E-400A-BDDE-A0088EFB5385}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Maze完成まで</t>
     <rPh sb="4" eb="6">
@@ -369,6 +369,26 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セクションを複数生成</t>
+    <rPh sb="6" eb="10">
+      <t>フクスウセイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生成はできたがバグっているので次はそこを修正したい　</t>
+    <rPh sb="0" eb="2">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -525,6 +545,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -896,14 +920,14 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>240195</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>1</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1030,14 +1054,14 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>240195</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1097,13 +1121,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1566,13 +1590,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1700,14 +1724,14 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>1</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1717,7 +1741,7 @@
                   <a14:compatExt spid="_x0000_s1076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB73AD92-75D5-7C64-A2D5-AFEEF6130864}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1767,14 +1791,14 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>240195</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1784,7 +1808,74 @@
                   <a14:compatExt spid="_x0000_s1077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88BBF4C9-C3F2-06B0-5B45-1E60278C6452}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1078" name="Check Box 54" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3C008F-2F2E-40DB-8256-00ACCAB47C0C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2128,10 +2219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858B8CB4-769B-4558-8834-3BB42C5C90BD}">
-  <dimension ref="A2:D35"/>
+  <dimension ref="A2:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2291,75 +2382,81 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2">
+        <v>45280</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -2427,6 +2524,30 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2554,13 +2675,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2598,13 +2719,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2620,13 +2741,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2774,13 +2895,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2818,13 +2939,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2840,13 +2961,35 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>323850</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1078" r:id="rId22" name="Check Box 54">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
